--- a/results/excel/res_example.xlsx
+++ b/results/excel/res_example.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="Results highway vid" sheetId="3" r:id="rId1"/>
-    <sheet name="Results highway" sheetId="2" r:id="rId2"/>
+    <sheet name="Test_video" sheetId="3" r:id="rId1"/>
+    <sheet name="Test_evaluate" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,15 +26,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>Confusion Matrix</t>
   </si>
   <si>
-    <t>F1 Score mean</t>
+    <t>F1-Score mean</t>
   </si>
   <si>
     <t>IoU Score mean</t>
+  </si>
+  <si>
+    <t>Rect mean</t>
+  </si>
+  <si>
+    <t>Masks mean</t>
+  </si>
+  <si>
+    <t>Classes mean</t>
   </si>
   <si>
     <t>Accuracy</t>
@@ -67,15 +76,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <b/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -128,11 +137,11 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -172,7 +181,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="ACC"/>
+        <xdr:cNvPr id="2" name="IoU"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -211,8 +220,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>645160</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>43180</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -245,33 +254,28 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>645160</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>210820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="ACC"/>
+        <xdr:cNvPr id="4" name="Classes"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -284,51 +288,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4445000" y="127000"/>
-          <a:ext cx="2540000" cy="1905000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>210820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>645160</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>43180</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="F1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4445000" y="2032000"/>
+          <a:off x="9525000" y="127000"/>
           <a:ext cx="2540000" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -604,9 +564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -616,79 +578,118 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="E2" s="3" t="s">
-        <v>3</v>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>3096.5263157894738</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1828.9473684210527</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.62867584202427762</v>
+      <c r="B3" s="4">
+        <v>4876.0666666666666</v>
+      </c>
+      <c r="C3" s="4">
+        <v>740.93333333333328</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.86809091448578724</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>606.72631578947369</v>
-      </c>
-      <c r="C4" s="2">
-        <v>71267.8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.99155853475647615</v>
+      <c r="B4" s="4">
+        <v>1269.3333333333333</v>
+      </c>
+      <c r="C4" s="4">
+        <v>69913.666666666672</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.98216802701019446</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.83616394122947402</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.97497908683675316</v>
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.79344984324318468</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.9895133036867616</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
-        <v>0.71772500423920582</v>
+      <c r="E9" s="3">
+        <v>0.82838642447408195</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C10" s="3" t="s">
-        <v>5</v>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D10" s="5">
-        <v>0.62721230598336342</v>
+        <v>0.63757571414242276</v>
       </c>
       <c r="E10" s="5">
-        <v>0.80823770249504823</v>
+        <v>1.0191971348057411</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="4">
-        <v>0.52680471102259552</v>
+      <c r="E12" s="3">
+        <v>0.7090093252359897</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.47914268336054278</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.93887596711143662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="5">
-        <v>0.42640341940345511</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.62720600264173587</v>
+      <c r="E21" s="3">
+        <v>0.85839338437129042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.68195405660853237</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.0348327121340484</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +701,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,40 +713,40 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="E2" s="3" t="s">
-        <v>3</v>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>4353</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>228</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.95022920759659468</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>1262</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>70957</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.98252537420900321</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
         <v>0.77524487978628676</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.99679707803610307</v>
       </c>
     </row>
@@ -753,44 +754,64 @@
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.85386426049431152</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.16150945615457302</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1.5462190648340499</v>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.74499400992640763</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="5">
-        <v>-0.10930057362241052</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1.5992885934752259</v>
+      <c r="E21" s="3">
+        <v>0.88583713624078053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="C22" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
